--- a/testleha1.xlsx
+++ b/testleha1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="ПрСмерти">'[1]Причина смерти'!$A$1:$A$7</definedName>
     <definedName name="Районы">[1]Районы!$A$1:$A$28</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -3050,8 +3050,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3126,15 +3126,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AbsDb"/>
@@ -3343,9 +3351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3383,9 +3391,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3417,9 +3425,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3451,9 +3460,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3626,45 +3636,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="79.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="41.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="41.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="22.5546875" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>142038</v>
       </c>
@@ -3821,7 +3831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>142039</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="6" customFormat="1">
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>142040</v>
       </c>
@@ -3951,7 +3961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="6" customFormat="1">
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>142041</v>
       </c>
@@ -4019,7 +4029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="6" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>142042</v>
       </c>
@@ -4089,7 +4099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="6" customFormat="1">
+    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>142043</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="6" customFormat="1">
+    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>142044</v>
       </c>
@@ -4221,7 +4231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="6" customFormat="1">
+    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>142045</v>
       </c>
@@ -4287,7 +4297,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>142046</v>
       </c>
@@ -4357,7 +4367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="6" customFormat="1">
+    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>142047</v>
       </c>
@@ -4423,7 +4433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="6" customFormat="1">
+    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>142048</v>
       </c>
@@ -4489,7 +4499,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="6" customFormat="1">
+    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>142049</v>
       </c>
@@ -4553,7 +4563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>142050</v>
       </c>
@@ -4617,7 +4627,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="6" customFormat="1">
+    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>142051</v>
       </c>
@@ -4683,7 +4693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="6" customFormat="1">
+    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>142052</v>
       </c>
@@ -4751,7 +4761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="17" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>142053</v>
       </c>
@@ -4817,7 +4827,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="6" customFormat="1">
+    <row r="18" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>142054</v>
       </c>
@@ -4883,7 +4893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="6" customFormat="1">
+    <row r="19" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>142055</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="6" customFormat="1">
+    <row r="20" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>142057</v>
       </c>
@@ -5017,7 +5027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="21" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>142056</v>
       </c>
@@ -5081,7 +5091,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="6" customFormat="1">
+    <row r="22" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>142058</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="6" customFormat="1">
+    <row r="23" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>142059</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="24" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>142060</v>
       </c>
@@ -5277,7 +5287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="25" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>142061</v>
       </c>
@@ -5341,7 +5351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="6" customFormat="1">
+    <row r="26" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>142062</v>
       </c>
@@ -5407,7 +5417,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="6" customFormat="1">
+    <row r="27" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>142063</v>
       </c>
@@ -5473,7 +5483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="28" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>142064</v>
       </c>
@@ -5541,7 +5551,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="6" customFormat="1">
+    <row r="29" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>142065</v>
       </c>
@@ -5607,7 +5617,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="6" customFormat="1">
+    <row r="30" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>142066</v>
       </c>
@@ -5673,7 +5683,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="31" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>142067</v>
       </c>
@@ -5743,7 +5753,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="6" customFormat="1">
+    <row r="32" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>142068</v>
       </c>
@@ -5811,7 +5821,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="6" customFormat="1">
+    <row r="33" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>142069</v>
       </c>
@@ -5875,7 +5885,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="6" customFormat="1">
+    <row r="34" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>142070</v>
       </c>
@@ -5939,7 +5949,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="6" customFormat="1">
+    <row r="35" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>142071</v>
       </c>
@@ -6005,7 +6015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="6" customFormat="1">
+    <row r="36" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>142072</v>
       </c>
@@ -6069,7 +6079,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="6" customFormat="1">
+    <row r="37" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>142073</v>
       </c>
@@ -6137,7 +6147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="6" customFormat="1">
+    <row r="38" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>142074</v>
       </c>
@@ -6205,7 +6215,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="6" customFormat="1">
+    <row r="39" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>142075</v>
       </c>
@@ -6273,7 +6283,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="6" customFormat="1">
+    <row r="40" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>142076</v>
       </c>
@@ -6337,7 +6347,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="41" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>142077</v>
       </c>
@@ -6407,7 +6417,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="6" customFormat="1">
+    <row r="42" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>142078</v>
       </c>
@@ -6475,7 +6485,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:29" s="6" customFormat="1">
+    <row r="43" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>142079</v>
       </c>
@@ -6545,7 +6555,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="6" customFormat="1">
+    <row r="44" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>142080</v>
       </c>
@@ -6611,7 +6621,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="45" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>142081</v>
       </c>
@@ -6679,7 +6689,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="46" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>142082</v>
       </c>
@@ -6743,7 +6753,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="6" customFormat="1">
+    <row r="47" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>142083</v>
       </c>
@@ -6809,7 +6819,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:29" s="6" customFormat="1">
+    <row r="48" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>142084</v>
       </c>
@@ -6873,7 +6883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:29" s="6" customFormat="1">
+    <row r="49" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>142085</v>
       </c>
@@ -6937,7 +6947,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:29" s="6" customFormat="1">
+    <row r="50" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>142086</v>
       </c>
@@ -7005,7 +7015,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="6" customFormat="1">
+    <row r="51" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>142087</v>
       </c>
@@ -7075,7 +7085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="6" customFormat="1">
+    <row r="52" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>142088</v>
       </c>
@@ -7139,7 +7149,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="6" customFormat="1">
+    <row r="53" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>142089</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="54" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>142090</v>
       </c>
@@ -7275,7 +7285,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:29" s="6" customFormat="1">
+    <row r="55" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>142091</v>
       </c>
@@ -7341,7 +7351,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:29" s="6" customFormat="1">
+    <row r="56" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>142092</v>
       </c>
@@ -7405,7 +7415,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="6" customFormat="1">
+    <row r="57" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>142093</v>
       </c>
@@ -7469,7 +7479,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="58" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>142094</v>
       </c>
@@ -7539,7 +7549,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="6" customFormat="1">
+    <row r="59" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>142095</v>
       </c>
@@ -7605,7 +7615,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="6" customFormat="1">
+    <row r="60" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>142096</v>
       </c>
@@ -7671,7 +7681,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="6" customFormat="1">
+    <row r="61" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>142097</v>
       </c>
@@ -7737,7 +7747,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="6" customFormat="1">
+    <row r="62" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>142098</v>
       </c>
@@ -7803,7 +7813,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="6" customFormat="1">
+    <row r="63" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>142099</v>
       </c>
@@ -7869,7 +7879,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="64" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>142100</v>
       </c>
@@ -7937,7 +7947,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:29" s="6" customFormat="1">
+    <row r="65" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>142101</v>
       </c>
@@ -8001,7 +8011,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:29" s="6" customFormat="1">
+    <row r="66" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>142102</v>
       </c>
@@ -8065,7 +8075,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="67" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>142103</v>
       </c>
@@ -8131,7 +8141,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" spans="1:29" s="6" customFormat="1">
+    <row r="68" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
         <v>142104</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:29" s="6" customFormat="1">
+    <row r="69" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
         <v>142105</v>
       </c>
@@ -8259,7 +8269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="70" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>142106</v>
       </c>
@@ -8327,7 +8337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="71" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>142107</v>
       </c>
@@ -8395,7 +8405,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="72" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>142108</v>
       </c>
@@ -8465,7 +8475,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="73" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>142109</v>
       </c>
@@ -8535,7 +8545,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="74" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="74" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>142110</v>
       </c>
@@ -8603,7 +8613,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="6" customFormat="1">
+    <row r="75" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
         <v>142111</v>
       </c>
@@ -8669,7 +8679,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:29" s="6" customFormat="1">
+    <row r="76" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>142112</v>
       </c>
@@ -8737,7 +8747,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:29" s="6" customFormat="1">
+    <row r="77" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>142113</v>
       </c>
@@ -8801,7 +8811,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="1:29" s="6" customFormat="1">
+    <row r="78" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>142114</v>
       </c>
@@ -8867,7 +8877,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:29" s="6" customFormat="1">
+    <row r="79" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>142115</v>
       </c>
@@ -8931,7 +8941,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:29" s="6" customFormat="1">
+    <row r="80" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>142116</v>
       </c>
@@ -8997,7 +9007,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:29" s="6" customFormat="1">
+    <row r="81" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>142117</v>
       </c>
@@ -9065,7 +9075,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:29" s="6" customFormat="1">
+    <row r="82" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
         <v>142118</v>
       </c>
@@ -9131,7 +9141,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="83" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
         <v>142119</v>
       </c>
@@ -9199,7 +9209,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="84" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="84" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
         <v>142120</v>
       </c>
@@ -9269,7 +9279,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="85" spans="1:29" s="6" customFormat="1">
+    <row r="85" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>142121</v>
       </c>
@@ -9335,7 +9345,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="1:29" s="6" customFormat="1">
+    <row r="86" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
         <v>142122</v>
       </c>
@@ -9401,7 +9411,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="6" customFormat="1">
+    <row r="87" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>142123</v>
       </c>
@@ -9465,7 +9475,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:29" s="6" customFormat="1">
+    <row r="88" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
         <v>142124</v>
       </c>
@@ -9529,7 +9539,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="1:29" s="6" customFormat="1">
+    <row r="89" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
         <v>142125</v>
       </c>
@@ -9597,7 +9607,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:29" s="6" customFormat="1">
+    <row r="90" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7">
         <v>142126</v>
       </c>
@@ -9663,7 +9673,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="91" spans="1:29" s="6" customFormat="1">
+    <row r="91" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>142127</v>
       </c>
@@ -9729,7 +9739,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:29" s="6" customFormat="1">
+    <row r="92" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
         <v>142128</v>
       </c>
@@ -9797,7 +9807,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="93" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="93" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
         <v>142129</v>
       </c>
@@ -9865,7 +9875,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:29" s="6" customFormat="1">
+    <row r="94" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>142130</v>
       </c>
@@ -9931,7 +9941,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="1:29" s="6" customFormat="1">
+    <row r="95" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
         <v>142132</v>
       </c>
@@ -9997,7 +10007,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="96" spans="1:29" s="6" customFormat="1">
+    <row r="96" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7">
         <v>142131</v>
       </c>
@@ -10063,7 +10073,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="97" spans="1:29" s="6" customFormat="1">
+    <row r="97" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>142133</v>
       </c>
@@ -10127,7 +10137,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:29" s="6" customFormat="1">
+    <row r="98" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7">
         <v>142134</v>
       </c>
@@ -10191,7 +10201,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:29" s="6" customFormat="1">
+    <row r="99" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>142135</v>
       </c>
@@ -10257,7 +10267,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:29" s="6" customFormat="1">
+    <row r="100" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>142136</v>
       </c>
@@ -10323,7 +10333,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="1:29" s="6" customFormat="1">
+    <row r="101" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>142137</v>
       </c>
@@ -10387,7 +10397,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:29" s="6" customFormat="1">
+    <row r="102" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>142138</v>
       </c>
@@ -10451,7 +10461,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" spans="1:29" s="6" customFormat="1">
+    <row r="103" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>142139</v>
       </c>
@@ -10519,7 +10529,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" spans="1:29" s="6" customFormat="1">
+    <row r="104" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>142140</v>
       </c>
@@ -10585,7 +10595,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="105" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>142141</v>
       </c>
@@ -10655,7 +10665,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="106" spans="1:29" s="6" customFormat="1">
+    <row r="106" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>142142</v>
       </c>
@@ -10721,7 +10731,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:29" s="6" customFormat="1">
+    <row r="107" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>142143</v>
       </c>
@@ -10787,7 +10797,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:29" s="6" customFormat="1">
+    <row r="108" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>142144</v>
       </c>
@@ -10853,7 +10863,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:29" s="6" customFormat="1">
+    <row r="109" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>142145</v>
       </c>
@@ -10919,7 +10929,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="110" spans="1:29" s="6" customFormat="1">
+    <row r="110" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>142146</v>
       </c>
@@ -10983,7 +10993,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="111" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>142147</v>
       </c>
@@ -11053,7 +11063,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:29" s="6" customFormat="1">
+    <row r="112" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>142148</v>
       </c>
@@ -11121,7 +11131,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:29" s="6" customFormat="1">
+    <row r="113" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>142149</v>
       </c>
@@ -11187,7 +11197,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="114" spans="1:29" s="6" customFormat="1">
+    <row r="114" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>142150</v>
       </c>
@@ -11255,7 +11265,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="115" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>142151</v>
       </c>
@@ -11323,7 +11333,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="116" spans="1:29" s="6" customFormat="1">
+    <row r="116" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>142152</v>
       </c>
@@ -11387,7 +11397,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="117" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>142153</v>
       </c>
@@ -11457,7 +11467,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:29" s="6" customFormat="1">
+    <row r="118" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>142154</v>
       </c>
@@ -11523,7 +11533,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:29" s="6" customFormat="1">
+    <row r="119" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>142155</v>
       </c>
@@ -11591,7 +11601,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="120" spans="1:29" s="6" customFormat="1">
+    <row r="120" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>142156</v>
       </c>
@@ -11657,7 +11667,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:29" s="6" customFormat="1">
+    <row r="121" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>142157</v>
       </c>
@@ -11725,7 +11735,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="122" spans="1:29" s="6" customFormat="1">
+    <row r="122" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>142160</v>
       </c>
@@ -11789,7 +11799,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:29" s="6" customFormat="1">
+    <row r="123" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>142158</v>
       </c>
@@ -11857,7 +11867,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="124" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="124" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>142159</v>
       </c>
@@ -11927,7 +11937,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="125" spans="1:29" s="6" customFormat="1">
+    <row r="125" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>142161</v>
       </c>
@@ -11993,7 +12003,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="126" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="7">
         <v>142162</v>
       </c>
@@ -12063,7 +12073,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="1:29" s="6" customFormat="1">
+    <row r="127" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>142163</v>
       </c>
@@ -12129,7 +12139,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="1:29" s="6" customFormat="1">
+    <row r="128" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>142164</v>
       </c>
@@ -12195,7 +12205,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="129" spans="1:29" s="6" customFormat="1">
+    <row r="129" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>142165</v>
       </c>
@@ -12263,7 +12273,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:29" s="6" customFormat="1">
+    <row r="130" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>142166</v>
       </c>
@@ -12327,7 +12337,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="131" spans="1:29" s="6" customFormat="1">
+    <row r="131" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>142167</v>
       </c>
@@ -12391,7 +12401,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="132" spans="1:29" s="6" customFormat="1">
+    <row r="132" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>142168</v>
       </c>
@@ -12457,7 +12467,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="133" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="133" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>142169</v>
       </c>
@@ -12525,7 +12535,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="134" spans="1:29" s="6" customFormat="1">
+    <row r="134" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>142171</v>
       </c>
@@ -12591,7 +12601,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="135" spans="1:29" s="6" customFormat="1">
+    <row r="135" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>142172</v>
       </c>
@@ -12657,7 +12667,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="136" spans="1:29" s="6" customFormat="1">
+    <row r="136" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>142170</v>
       </c>
@@ -12725,7 +12735,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="137" spans="1:29" s="6" customFormat="1">
+    <row r="137" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>142173</v>
       </c>
@@ -12791,7 +12801,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="138" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="138" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>142174</v>
       </c>
@@ -12861,7 +12871,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="139" spans="1:29" s="6" customFormat="1">
+    <row r="139" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>142175</v>
       </c>
@@ -12927,7 +12937,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="140" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="140" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>142176</v>
       </c>
@@ -12993,7 +13003,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="141" spans="1:29" s="6" customFormat="1">
+    <row r="141" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>142177</v>
       </c>
@@ -13059,7 +13069,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="142" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="142" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>142178</v>
       </c>
@@ -13127,7 +13137,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:29" s="6" customFormat="1">
+    <row r="143" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>142179</v>
       </c>
@@ -13193,7 +13203,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="144" spans="1:29" s="6" customFormat="1">
+    <row r="144" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>142180</v>
       </c>
@@ -13261,7 +13271,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="145" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>142181</v>
       </c>
@@ -13329,7 +13339,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="146" spans="1:29" s="6" customFormat="1">
+    <row r="146" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>142182</v>
       </c>
@@ -13393,7 +13403,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="147" spans="1:29" s="6" customFormat="1">
+    <row r="147" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>142183</v>
       </c>
@@ -13461,7 +13471,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="148" spans="1:29" s="6" customFormat="1">
+    <row r="148" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>142184</v>
       </c>
@@ -13529,7 +13539,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="149" spans="1:29" s="6" customFormat="1">
+    <row r="149" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>142185</v>
       </c>
@@ -13593,7 +13603,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="150" spans="1:29" s="6" customFormat="1">
+    <row r="150" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>142186</v>
       </c>
@@ -13659,7 +13669,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="151" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="151" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>142187</v>
       </c>
@@ -13727,7 +13737,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="152" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="152" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>142188</v>
       </c>
@@ -13797,7 +13807,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="153" spans="1:29" s="6" customFormat="1">
+    <row r="153" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>142189</v>
       </c>
@@ -13861,7 +13871,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="154" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>142190</v>
       </c>
@@ -13927,7 +13937,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="155" spans="1:29" s="6" customFormat="1">
+    <row r="155" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>142191</v>
       </c>
@@ -13991,7 +14001,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="156" spans="1:29" s="6" customFormat="1">
+    <row r="156" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>142192</v>
       </c>
@@ -14055,7 +14065,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="157" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="157" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>142193</v>
       </c>
@@ -14121,7 +14131,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="158" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="158" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>142194</v>
       </c>
@@ -14187,7 +14197,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="159" spans="1:29" s="6" customFormat="1">
+    <row r="159" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>142195</v>
       </c>
@@ -14251,7 +14261,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="160" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="160" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>142196</v>
       </c>
@@ -14319,7 +14329,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="161" spans="1:29" s="6" customFormat="1">
+    <row r="161" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>142197</v>
       </c>
@@ -14385,7 +14395,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="162" spans="1:29" s="6" customFormat="1">
+    <row r="162" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7">
         <v>142198</v>
       </c>
@@ -14451,7 +14461,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="163" spans="1:29" s="6" customFormat="1">
+    <row r="163" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>142199</v>
       </c>
@@ -14517,7 +14527,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="164" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="164" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>142200</v>
       </c>
@@ -14587,7 +14597,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="165" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="165" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>142201</v>
       </c>
@@ -14657,7 +14667,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="166" spans="1:29" s="6" customFormat="1">
+    <row r="166" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>142202</v>
       </c>
@@ -14725,7 +14735,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="167" spans="1:29" s="6" customFormat="1">
+    <row r="167" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>142203</v>
       </c>
@@ -14789,7 +14799,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="168" spans="1:29" s="6" customFormat="1">
+    <row r="168" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>142205</v>
       </c>
@@ -14853,7 +14863,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:29" s="6" customFormat="1">
+    <row r="169" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>142206</v>
       </c>
@@ -14917,7 +14927,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="170" spans="1:29" s="6" customFormat="1">
+    <row r="170" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>142204</v>
       </c>
@@ -14981,7 +14991,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="171" spans="1:29" s="6" customFormat="1">
+    <row r="171" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>142207</v>
       </c>
@@ -15047,7 +15057,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="172" spans="1:29" s="6" customFormat="1">
+    <row r="172" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>142208</v>
       </c>
@@ -15111,7 +15121,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="173" spans="1:29" s="6" customFormat="1">
+    <row r="173" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7">
         <v>142209</v>
       </c>
@@ -15175,7 +15185,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="174" spans="1:29" s="6" customFormat="1">
+    <row r="174" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>142210</v>
       </c>
@@ -15241,7 +15251,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="175" spans="1:29" s="6" customFormat="1">
+    <row r="175" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>142211</v>
       </c>
@@ -15305,7 +15315,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="176" spans="1:29" s="6" customFormat="1">
+    <row r="176" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>142212</v>
       </c>
@@ -15371,7 +15381,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:29" s="6" customFormat="1">
+    <row r="177" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>142213</v>
       </c>
@@ -15437,7 +15447,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="178" spans="1:29" s="6" customFormat="1">
+    <row r="178" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>142214</v>
       </c>
@@ -15505,7 +15515,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="179" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="179" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>142215</v>
       </c>
@@ -15573,7 +15583,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="180" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="180" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>142216</v>
       </c>
@@ -15643,7 +15653,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="181" spans="1:29" s="6" customFormat="1">
+    <row r="181" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>142217</v>
       </c>
@@ -15707,7 +15717,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="182" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>142228</v>
       </c>
@@ -15777,7 +15787,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="183" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="183" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>142218</v>
       </c>
@@ -15847,7 +15857,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="184" spans="1:29" s="6" customFormat="1">
+    <row r="184" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>142219</v>
       </c>
@@ -15915,7 +15925,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="185" spans="1:29" s="6" customFormat="1">
+    <row r="185" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>142220</v>
       </c>
@@ -15979,7 +15989,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="186" spans="1:29" s="6" customFormat="1">
+    <row r="186" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>142221</v>
       </c>
@@ -16045,7 +16055,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="187" spans="1:29" s="6" customFormat="1">
+    <row r="187" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>142222</v>
       </c>
@@ -16111,7 +16121,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="188" spans="1:29" s="6" customFormat="1">
+    <row r="188" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>142223</v>
       </c>
@@ -16175,7 +16185,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="189" spans="1:29" s="6" customFormat="1">
+    <row r="189" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>142224</v>
       </c>
@@ -16243,7 +16253,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="190" spans="1:29" s="6" customFormat="1">
+    <row r="190" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>142225</v>
       </c>
@@ -16313,7 +16323,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="191" spans="1:29" s="6" customFormat="1">
+    <row r="191" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>142226</v>
       </c>
@@ -16377,7 +16387,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="192" spans="1:29" s="6" customFormat="1">
+    <row r="192" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>142227</v>
       </c>
@@ -16443,7 +16453,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="193" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="193" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>142229</v>
       </c>
@@ -16513,7 +16523,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="194" spans="1:29" s="6" customFormat="1">
+    <row r="194" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>142230</v>
       </c>
@@ -16581,7 +16591,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="195" spans="1:29" s="6" customFormat="1">
+    <row r="195" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>142231</v>
       </c>
@@ -16649,7 +16659,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="196" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="196" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>142232</v>
       </c>
@@ -16717,7 +16727,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="197" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="197" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>142233</v>
       </c>
@@ -16787,7 +16797,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="198" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="198" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A198" s="7">
         <v>142234</v>
       </c>
@@ -16857,7 +16867,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="199" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="199" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A199" s="7">
         <v>142235</v>
       </c>
@@ -16925,7 +16935,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="200" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="200" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A200" s="7">
         <v>142236</v>
       </c>
@@ -16995,7 +17005,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="201" spans="1:29" s="6" customFormat="1">
+    <row r="201" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7">
         <v>142237</v>
       </c>
@@ -17063,7 +17073,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="202" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="202" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A202" s="7">
         <v>142238</v>
       </c>
@@ -17131,7 +17141,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="203" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="203" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A203" s="7">
         <v>142239</v>
       </c>
@@ -17201,7 +17211,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="204" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="204" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A204" s="7">
         <v>142240</v>
       </c>
@@ -17267,7 +17277,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="205" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="205" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A205" s="7">
         <v>142241</v>
       </c>
@@ -17335,7 +17345,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="206" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="206" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7">
         <v>142242</v>
       </c>
@@ -17405,7 +17415,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="207" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="207" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A207" s="7">
         <v>142243</v>
       </c>
@@ -17475,7 +17485,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="208" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="208" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A208" s="7">
         <v>142244</v>
       </c>
@@ -17541,7 +17551,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="209" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="209" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>142245</v>
       </c>
@@ -17609,7 +17619,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="210" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="210" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A210" s="7">
         <v>142246</v>
       </c>
@@ -17675,7 +17685,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="211" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="211" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A211" s="7">
         <v>142247</v>
       </c>
@@ -17741,7 +17751,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="212" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="212" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A212" s="7">
         <v>142248</v>
       </c>
@@ -17807,7 +17817,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="213" spans="1:29" s="6" customFormat="1">
+    <row r="213" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7">
         <v>142249</v>
       </c>
@@ -17875,7 +17885,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="214" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="214" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A214" s="7">
         <v>142250</v>
       </c>
@@ -17939,7 +17949,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="215" spans="1:29" s="6" customFormat="1">
+    <row r="215" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7">
         <v>142251</v>
       </c>
@@ -18005,7 +18015,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="216" spans="1:29" s="6" customFormat="1">
+    <row r="216" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7">
         <v>142252</v>
       </c>
@@ -18071,7 +18081,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="217" spans="1:29" s="6" customFormat="1">
+    <row r="217" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7">
         <v>142253</v>
       </c>
@@ -18137,7 +18147,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="218" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="218" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A218" s="7">
         <v>142254</v>
       </c>
@@ -18203,7 +18213,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="219" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="219" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A219" s="7">
         <v>142255</v>
       </c>
@@ -18271,7 +18281,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="220" spans="1:29" s="6" customFormat="1">
+    <row r="220" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7">
         <v>142256</v>
       </c>
@@ -18335,7 +18345,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="221" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="221" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A221" s="7">
         <v>142257</v>
       </c>
@@ -18401,7 +18411,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="222" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="222" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A222" s="7">
         <v>142258</v>
       </c>
@@ -18465,7 +18475,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="223" spans="1:29" s="6" customFormat="1">
+    <row r="223" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7">
         <v>142259</v>
       </c>
@@ -18533,7 +18543,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="224" spans="1:29" s="6" customFormat="1">
+    <row r="224" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7">
         <v>142260</v>
       </c>
@@ -18599,7 +18609,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="225" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="225" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>142261</v>
       </c>
@@ -18669,7 +18679,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="226" spans="1:29" s="6" customFormat="1">
+    <row r="226" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7">
         <v>142262</v>
       </c>
@@ -18733,7 +18743,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="1:29" s="6" customFormat="1">
+    <row r="227" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7">
         <v>142263</v>
       </c>
@@ -18797,7 +18807,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="228" spans="1:29" s="6" customFormat="1">
+    <row r="228" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7">
         <v>142264</v>
       </c>
@@ -18863,7 +18873,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="229" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="229" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A229" s="7">
         <v>142265</v>
       </c>
@@ -18931,7 +18941,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="230" spans="1:29" s="6" customFormat="1">
+    <row r="230" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7">
         <v>142266</v>
       </c>
@@ -18995,7 +19005,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="231" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="231" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A231" s="7">
         <v>142267</v>
       </c>
@@ -19065,7 +19075,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="232" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="232" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A232" s="7">
         <v>142268</v>
       </c>
@@ -19135,7 +19145,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="233" spans="1:29" s="6" customFormat="1">
+    <row r="233" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7">
         <v>142269</v>
       </c>
@@ -19199,7 +19209,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="234" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="234" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A234" s="7">
         <v>142270</v>
       </c>
@@ -19269,7 +19279,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="235" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="235" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A235" s="7">
         <v>142271</v>
       </c>
@@ -19337,7 +19347,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="236" spans="1:29" s="6" customFormat="1">
+    <row r="236" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7">
         <v>142272</v>
       </c>
@@ -19403,7 +19413,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="237" spans="1:29" s="6" customFormat="1">
+    <row r="237" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7">
         <v>142273</v>
       </c>
@@ -19469,7 +19479,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="238" spans="1:29" s="6" customFormat="1">
+    <row r="238" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7">
         <v>142274</v>
       </c>
@@ -19537,7 +19547,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="239" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="239" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A239" s="7">
         <v>142275</v>
       </c>
@@ -19605,7 +19615,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="240" spans="1:29" s="6" customFormat="1">
+    <row r="240" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7">
         <v>142276</v>
       </c>
@@ -19669,7 +19679,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="241" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="241" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>142277</v>
       </c>
@@ -19739,7 +19749,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="242" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="242" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A242" s="7">
         <v>142278</v>
       </c>
@@ -19807,7 +19817,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="243" spans="1:29" s="6" customFormat="1">
+    <row r="243" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7">
         <v>142279</v>
       </c>
@@ -19873,7 +19883,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="244" spans="1:29" s="6" customFormat="1">
+    <row r="244" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7">
         <v>142280</v>
       </c>
@@ -19939,7 +19949,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="245" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="245" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A245" s="7">
         <v>142281</v>
       </c>
@@ -20007,7 +20017,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="246" spans="1:29" s="6" customFormat="1">
+    <row r="246" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7">
         <v>142282</v>
       </c>
@@ -20073,7 +20083,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="247" spans="1:29" s="6" customFormat="1">
+    <row r="247" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7">
         <v>142283</v>
       </c>
@@ -20139,7 +20149,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="248" spans="1:29" s="6" customFormat="1">
+    <row r="248" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7">
         <v>142284</v>
       </c>
@@ -20209,7 +20219,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="249" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="249" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A249" s="7">
         <v>142285</v>
       </c>
@@ -20277,7 +20287,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="250" spans="1:29" s="6" customFormat="1">
+    <row r="250" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7">
         <v>142286</v>
       </c>
@@ -20345,7 +20355,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="251" spans="1:29" s="6" customFormat="1">
+    <row r="251" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7">
         <v>142287</v>
       </c>
@@ -20413,7 +20423,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="252" spans="1:29" s="6" customFormat="1">
+    <row r="252" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7">
         <v>142288</v>
       </c>
@@ -20477,7 +20487,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="253" spans="1:29" s="6" customFormat="1">
+    <row r="253" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7">
         <v>142289</v>
       </c>
@@ -20543,7 +20553,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="254" spans="1:29" s="6" customFormat="1">
+    <row r="254" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7">
         <v>142290</v>
       </c>
@@ -20611,7 +20621,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="255" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="255" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A255" s="7">
         <v>142291</v>
       </c>
@@ -20681,7 +20691,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="256" spans="1:29" s="6" customFormat="1">
+    <row r="256" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7">
         <v>142292</v>
       </c>
@@ -20747,7 +20757,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="257" spans="1:29" s="6" customFormat="1">
+    <row r="257" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>142293</v>
       </c>
@@ -20811,7 +20821,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="258" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="258" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A258" s="7">
         <v>142294</v>
       </c>
@@ -20879,7 +20889,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="259" spans="1:29" s="6" customFormat="1">
+    <row r="259" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7">
         <v>142295</v>
       </c>
@@ -20945,7 +20955,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="260" spans="1:29" s="6" customFormat="1">
+    <row r="260" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7">
         <v>142296</v>
       </c>
@@ -21011,7 +21021,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="261" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="261" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A261" s="7">
         <v>142297</v>
       </c>
@@ -21079,7 +21089,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="262" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="262" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A262" s="7">
         <v>142299</v>
       </c>
@@ -21149,7 +21159,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="263" spans="1:29" s="6" customFormat="1">
+    <row r="263" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7">
         <v>142298</v>
       </c>
@@ -21217,7 +21227,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="264" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="264" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A264" s="7">
         <v>142300</v>
       </c>
@@ -21287,7 +21297,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="265" spans="1:29" s="6" customFormat="1">
+    <row r="265" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7">
         <v>142301</v>
       </c>
@@ -21351,7 +21361,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="266" spans="1:29" s="6" customFormat="1">
+    <row r="266" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7">
         <v>142302</v>
       </c>
@@ -21415,7 +21425,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="267" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="267" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A267" s="7">
         <v>142303</v>
       </c>
@@ -21485,7 +21495,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="268" spans="1:29" s="6" customFormat="1">
+    <row r="268" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7">
         <v>142304</v>
       </c>
@@ -21551,7 +21561,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="269" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="269" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A269" s="7">
         <v>142305</v>
       </c>
@@ -21621,7 +21631,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="270" spans="1:29" s="6" customFormat="1">
+    <row r="270" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7">
         <v>142306</v>
       </c>
@@ -21687,7 +21697,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="271" spans="1:29" s="6" customFormat="1">
+    <row r="271" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7">
         <v>142307</v>
       </c>
@@ -21751,7 +21761,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="272" spans="1:29" s="6" customFormat="1">
+    <row r="272" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7">
         <v>142308</v>
       </c>
@@ -21815,7 +21825,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="273" spans="1:29" s="6" customFormat="1">
+    <row r="273" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>142309</v>
       </c>
@@ -21881,7 +21891,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="274" spans="1:29" s="6" customFormat="1">
+    <row r="274" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7">
         <v>142310</v>
       </c>
@@ -21945,7 +21955,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="275" spans="1:29" s="6" customFormat="1">
+    <row r="275" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7">
         <v>142311</v>
       </c>
@@ -22011,7 +22021,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="276" spans="1:29" s="6" customFormat="1">
+    <row r="276" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7">
         <v>142312</v>
       </c>
@@ -22077,7 +22087,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="277" spans="1:29" s="6" customFormat="1">
+    <row r="277" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7">
         <v>142313</v>
       </c>
@@ -22145,7 +22155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:29" s="6" customFormat="1">
+    <row r="278" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7">
         <v>142314</v>
       </c>
@@ -22211,7 +22221,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="279" spans="1:29" s="6" customFormat="1">
+    <row r="279" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7">
         <v>142315</v>
       </c>
@@ -22279,7 +22289,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="280" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="280" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A280" s="7">
         <v>142316</v>
       </c>
@@ -22349,7 +22359,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="281" spans="1:29" s="6" customFormat="1">
+    <row r="281" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7">
         <v>142317</v>
       </c>
@@ -22413,7 +22423,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="282" spans="1:29" s="6" customFormat="1">
+    <row r="282" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7">
         <v>142318</v>
       </c>
@@ -22479,7 +22489,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="283" spans="1:29" s="6" customFormat="1">
+    <row r="283" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7">
         <v>142319</v>
       </c>
@@ -22545,7 +22555,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="284" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="284" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A284" s="7">
         <v>142320</v>
       </c>
@@ -22615,7 +22625,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="285" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="285" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7">
         <v>142321</v>
       </c>
@@ -22683,7 +22693,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="286" spans="1:29" s="6" customFormat="1">
+    <row r="286" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7">
         <v>142322</v>
       </c>
@@ -22749,7 +22759,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="287" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="287" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A287" s="7">
         <v>142323</v>
       </c>
@@ -22819,7 +22829,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="288" spans="1:29" s="6" customFormat="1">
+    <row r="288" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7">
         <v>142324</v>
       </c>
@@ -22883,7 +22893,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="289" spans="1:29" s="6" customFormat="1">
+    <row r="289" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>142325</v>
       </c>
@@ -22949,7 +22959,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="290" spans="1:29" s="6" customFormat="1">
+    <row r="290" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7">
         <v>142326</v>
       </c>
@@ -23015,7 +23025,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="291" spans="1:29" s="6" customFormat="1">
+    <row r="291" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7">
         <v>142327</v>
       </c>
@@ -23079,7 +23089,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="292" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="292" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A292" s="7">
         <v>142328</v>
       </c>
@@ -23149,7 +23159,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="293" spans="1:29" s="6" customFormat="1">
+    <row r="293" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7">
         <v>142329</v>
       </c>
@@ -23215,7 +23225,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="294" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="294" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A294" s="7">
         <v>142330</v>
       </c>
@@ -23283,7 +23293,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="295" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="295" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A295" s="7">
         <v>142331</v>
       </c>
@@ -23353,7 +23363,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="296" spans="1:29" s="6" customFormat="1">
+    <row r="296" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7">
         <v>142332</v>
       </c>
@@ -23421,7 +23431,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="297" spans="1:29" s="6" customFormat="1">
+    <row r="297" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7">
         <v>142333</v>
       </c>
@@ -23487,7 +23497,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="298" spans="1:29" s="6" customFormat="1">
+    <row r="298" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7">
         <v>142334</v>
       </c>
@@ -23553,7 +23563,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="299" spans="1:29" s="6" customFormat="1">
+    <row r="299" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7">
         <v>142335</v>
       </c>
@@ -23619,7 +23629,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="300" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="300" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A300" s="7">
         <v>142336</v>
       </c>
@@ -23687,7 +23697,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="301" spans="1:29" s="6" customFormat="1">
+    <row r="301" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7">
         <v>142337</v>
       </c>
@@ -23753,7 +23763,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="302" spans="1:29" s="6" customFormat="1">
+    <row r="302" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7">
         <v>142338</v>
       </c>
@@ -23817,7 +23827,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="303" spans="1:29" s="6" customFormat="1">
+    <row r="303" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7">
         <v>142339</v>
       </c>
@@ -23885,7 +23895,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="304" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="304" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A304" s="7">
         <v>142340</v>
       </c>
@@ -23955,7 +23965,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="305" spans="1:29" s="6" customFormat="1">
+    <row r="305" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <v>142341</v>
       </c>
@@ -24019,7 +24029,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="306" spans="1:29" s="6" customFormat="1">
+    <row r="306" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7">
         <v>142342</v>
       </c>
@@ -24087,7 +24097,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="307" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="307" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A307" s="7">
         <v>142343</v>
       </c>
@@ -24155,7 +24165,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="308" spans="1:29" s="6" customFormat="1">
+    <row r="308" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7">
         <v>142344</v>
       </c>
@@ -24219,7 +24229,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="309" spans="1:29" s="6" customFormat="1">
+    <row r="309" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7">
         <v>142345</v>
       </c>
@@ -24283,7 +24293,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="310" spans="1:29" s="6" customFormat="1">
+    <row r="310" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7">
         <v>142346</v>
       </c>
@@ -24347,7 +24357,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="311" spans="1:29" s="6" customFormat="1">
+    <row r="311" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7">
         <v>142347</v>
       </c>
@@ -24413,7 +24423,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="312" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="312" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A312" s="7">
         <v>142348</v>
       </c>
@@ -24483,7 +24493,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="313" spans="1:29" s="6" customFormat="1">
+    <row r="313" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7">
         <v>142349</v>
       </c>
@@ -24549,7 +24559,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="314" spans="1:29" s="6" customFormat="1">
+    <row r="314" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7">
         <v>142350</v>
       </c>
@@ -24613,7 +24623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="315" spans="1:29" s="6" customFormat="1">
+    <row r="315" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7">
         <v>142351</v>
       </c>
@@ -24677,7 +24687,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="316" spans="1:29" s="6" customFormat="1">
+    <row r="316" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7">
         <v>142353</v>
       </c>
@@ -24743,7 +24753,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="317" spans="1:29" s="6" customFormat="1">
+    <row r="317" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7">
         <v>142354</v>
       </c>
@@ -24811,7 +24821,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="318" spans="1:29" s="6" customFormat="1">
+    <row r="318" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7">
         <v>142355</v>
       </c>
@@ -24881,7 +24891,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="319" spans="1:29" s="6" customFormat="1">
+    <row r="319" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7">
         <v>142356</v>
       </c>
@@ -24951,7 +24961,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="320" spans="1:29" s="6" customFormat="1">
+    <row r="320" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7">
         <v>142357</v>
       </c>
@@ -25015,7 +25025,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="321" spans="1:29" s="6" customFormat="1">
+    <row r="321" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <v>142358</v>
       </c>
@@ -25081,7 +25091,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="322" spans="1:29" s="6" customFormat="1">
+    <row r="322" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7">
         <v>142359</v>
       </c>
@@ -25149,7 +25159,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="323" spans="1:29" s="6" customFormat="1">
+    <row r="323" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7">
         <v>142360</v>
       </c>
@@ -25217,7 +25227,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="324" spans="1:29" s="6" customFormat="1">
+    <row r="324" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7">
         <v>142361</v>
       </c>
@@ -25285,7 +25295,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="325" spans="1:29" s="6" customFormat="1">
+    <row r="325" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7">
         <v>142362</v>
       </c>
@@ -25351,7 +25361,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="326" spans="1:29" s="6" customFormat="1">
+    <row r="326" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7">
         <v>142363</v>
       </c>
@@ -25415,7 +25425,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="327" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="327" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A327" s="7">
         <v>142364</v>
       </c>
@@ -25483,7 +25493,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="328" spans="1:29" s="6" customFormat="1">
+    <row r="328" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7">
         <v>142365</v>
       </c>
@@ -25549,7 +25559,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="329" spans="1:29" s="6" customFormat="1">
+    <row r="329" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7">
         <v>142366</v>
       </c>
@@ -25617,7 +25627,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="330" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="330" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A330" s="7">
         <v>142367</v>
       </c>
@@ -25687,7 +25697,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="331" spans="1:29" s="6" customFormat="1">
+    <row r="331" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7">
         <v>142368</v>
       </c>
@@ -25753,7 +25763,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="332" spans="1:29" s="6" customFormat="1">
+    <row r="332" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7">
         <v>142369</v>
       </c>
@@ -25819,7 +25829,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="333" spans="1:29" s="6" customFormat="1">
+    <row r="333" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7">
         <v>142370</v>
       </c>
@@ -25885,7 +25895,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="334" spans="1:29" s="6" customFormat="1">
+    <row r="334" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7">
         <v>142371</v>
       </c>
@@ -25951,7 +25961,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="335" spans="1:29" s="6" customFormat="1">
+    <row r="335" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7">
         <v>142372</v>
       </c>
@@ -26017,7 +26027,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="336" spans="1:29" s="6" customFormat="1">
+    <row r="336" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7">
         <v>142373</v>
       </c>
@@ -26083,7 +26093,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="337" spans="1:29" s="6" customFormat="1">
+    <row r="337" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <v>142374</v>
       </c>
@@ -26149,7 +26159,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="338" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="338" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A338" s="7">
         <v>142375</v>
       </c>
@@ -26217,7 +26227,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="339" spans="1:29" s="6" customFormat="1">
+    <row r="339" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7">
         <v>142376</v>
       </c>
@@ -26281,7 +26291,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="340" spans="1:29" s="6" customFormat="1">
+    <row r="340" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7">
         <v>142377</v>
       </c>
@@ -26345,7 +26355,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="341" spans="1:29" s="6" customFormat="1">
+    <row r="341" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7">
         <v>142378</v>
       </c>
@@ -26413,7 +26423,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="342" spans="1:29" s="6" customFormat="1">
+    <row r="342" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7">
         <v>142379</v>
       </c>
@@ -26479,7 +26489,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="343" spans="1:29" s="6" customFormat="1">
+    <row r="343" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7">
         <v>142381</v>
       </c>
@@ -26545,7 +26555,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="344" spans="1:29" s="6" customFormat="1">
+    <row r="344" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7">
         <v>142380</v>
       </c>
@@ -26613,7 +26623,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="345" spans="1:29" s="6" customFormat="1">
+    <row r="345" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7">
         <v>142382</v>
       </c>
@@ -26679,7 +26689,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:29" s="6" customFormat="1">
+    <row r="346" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7">
         <v>142383</v>
       </c>
@@ -26747,7 +26757,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="347" spans="1:29" s="6" customFormat="1">
+    <row r="347" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7">
         <v>142384</v>
       </c>
@@ -26815,7 +26825,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="348" spans="1:29" s="6" customFormat="1">
+    <row r="348" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7">
         <v>142385</v>
       </c>
@@ -26881,7 +26891,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="349" spans="1:29" s="6" customFormat="1">
+    <row r="349" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7">
         <v>142386</v>
       </c>
@@ -26949,7 +26959,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="350" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="350" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A350" s="7">
         <v>142387</v>
       </c>
@@ -27017,7 +27027,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="351" spans="1:29" s="6" customFormat="1">
+    <row r="351" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7">
         <v>142388</v>
       </c>
@@ -27085,7 +27095,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="352" spans="1:29" s="6" customFormat="1">
+    <row r="352" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7">
         <v>142389</v>
       </c>
@@ -27149,7 +27159,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="353" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="353" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
         <v>142390</v>
       </c>
@@ -27219,7 +27229,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="354" spans="1:29" s="6" customFormat="1">
+    <row r="354" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7">
         <v>142391</v>
       </c>
@@ -27283,7 +27293,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="355" spans="1:29" s="6" customFormat="1">
+    <row r="355" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7">
         <v>142392</v>
       </c>
@@ -27347,7 +27357,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="356" spans="1:29" s="6" customFormat="1">
+    <row r="356" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7">
         <v>142393</v>
       </c>
@@ -27411,7 +27421,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="357" spans="1:29" s="6" customFormat="1">
+    <row r="357" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7">
         <v>142394</v>
       </c>
@@ -27475,7 +27485,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="358" spans="1:29" s="6" customFormat="1">
+    <row r="358" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7">
         <v>142395</v>
       </c>
@@ -27541,7 +27551,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="359" spans="1:29" s="6" customFormat="1">
+    <row r="359" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7">
         <v>142396</v>
       </c>
@@ -27605,7 +27615,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="360" spans="1:29" s="6" customFormat="1">
+    <row r="360" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7">
         <v>142397</v>
       </c>
@@ -27673,7 +27683,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="361" spans="1:29" s="6" customFormat="1">
+    <row r="361" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7">
         <v>142398</v>
       </c>
@@ -27737,7 +27747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="362" spans="1:29" s="6" customFormat="1">
+    <row r="362" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7">
         <v>142399</v>
       </c>
@@ -27801,7 +27811,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="363" spans="1:29" s="6" customFormat="1">
+    <row r="363" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7">
         <v>142400</v>
       </c>
@@ -27867,7 +27877,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="364" spans="1:29" s="6" customFormat="1">
+    <row r="364" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7">
         <v>142401</v>
       </c>
@@ -27931,7 +27941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="365" spans="1:29" s="6" customFormat="1">
+    <row r="365" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7">
         <v>142402</v>
       </c>
@@ -27995,7 +28005,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="366" spans="1:29" s="6" customFormat="1">
+    <row r="366" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="7">
         <v>142403</v>
       </c>
@@ -28059,7 +28069,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="367" spans="1:29" s="6" customFormat="1">
+    <row r="367" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7">
         <v>142404</v>
       </c>
@@ -28123,7 +28133,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="368" spans="1:29" s="6" customFormat="1">
+    <row r="368" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7">
         <v>142405</v>
       </c>
@@ -28189,7 +28199,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="369" spans="1:29" s="6" customFormat="1">
+    <row r="369" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7">
         <v>142406</v>
       </c>
@@ -28253,7 +28263,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="370" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="370" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A370" s="7">
         <v>142407</v>
       </c>
@@ -28323,7 +28333,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="371" spans="1:29" s="6" customFormat="1">
+    <row r="371" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7">
         <v>142408</v>
       </c>
@@ -28389,7 +28399,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="372" spans="1:29" s="6" customFormat="1">
+    <row r="372" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7">
         <v>142409</v>
       </c>
@@ -28455,7 +28465,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="373" spans="1:29" s="6" customFormat="1">
+    <row r="373" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7">
         <v>142410</v>
       </c>
@@ -28519,7 +28529,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="374" spans="1:29" s="6" customFormat="1">
+    <row r="374" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7">
         <v>142411</v>
       </c>
@@ -28583,7 +28593,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="375" spans="1:29" s="6" customFormat="1">
+    <row r="375" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7">
         <v>142412</v>
       </c>
@@ -28645,7 +28655,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="376" spans="1:29" s="6" customFormat="1">
+    <row r="376" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="7">
         <v>142413</v>
       </c>
@@ -28709,7 +28719,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="377" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="377" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7">
         <v>142414</v>
       </c>
@@ -28775,7 +28785,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="378" spans="1:29" s="6" customFormat="1">
+    <row r="378" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="7">
         <v>142415</v>
       </c>
@@ -28839,7 +28849,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="379" spans="1:29" s="6" customFormat="1">
+    <row r="379" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7">
         <v>142416</v>
       </c>
@@ -28905,7 +28915,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="380" spans="1:29" s="6" customFormat="1">
+    <row r="380" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7">
         <v>145654</v>
       </c>
@@ -28969,7 +28979,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="381" spans="1:29" s="6" customFormat="1">
+    <row r="381" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7">
         <v>142352</v>
       </c>
@@ -29037,7 +29047,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="382" spans="1:29" s="6" customFormat="1">
+    <row r="382" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7">
         <v>142417</v>
       </c>
@@ -29103,7 +29113,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="383" spans="1:29" s="6" customFormat="1">
+    <row r="383" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7">
         <v>142418</v>
       </c>
@@ -29169,7 +29179,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="384" spans="1:29" s="6" customFormat="1">
+    <row r="384" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7">
         <v>142419</v>
       </c>
@@ -29235,7 +29245,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="385" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="385" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A385" s="7">
         <v>142420</v>
       </c>
@@ -29305,7 +29315,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="386" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="386" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="7">
         <v>142421</v>
       </c>
@@ -29369,7 +29379,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="387" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="387" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A387" s="7">
         <v>142422</v>
       </c>
@@ -29435,7 +29445,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="388" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="388" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A388" s="7">
         <v>142423</v>
       </c>
@@ -29501,7 +29511,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="389" spans="1:29" s="6" customFormat="1">
+    <row r="389" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="7">
         <v>142424</v>
       </c>
@@ -29565,7 +29575,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="390" spans="1:29" s="6" customFormat="1">
+    <row r="390" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="7">
         <v>142425</v>
       </c>
@@ -29633,7 +29643,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="391" spans="1:29" s="6" customFormat="1">
+    <row r="391" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="7">
         <v>145655</v>
       </c>
@@ -29701,7 +29711,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="392" spans="1:29" s="6" customFormat="1">
+    <row r="392" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="7">
         <v>142426</v>
       </c>
@@ -29765,7 +29775,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="393" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="393" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A393" s="7">
         <v>142427</v>
       </c>
@@ -29835,7 +29845,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="394" spans="1:29" s="6" customFormat="1">
+    <row r="394" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="7">
         <v>142428</v>
       </c>
@@ -29899,7 +29909,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="395" spans="1:29" s="6" customFormat="1">
+    <row r="395" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="7">
         <v>142429</v>
       </c>
@@ -29963,7 +29973,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="396" spans="1:29" s="6" customFormat="1">
+    <row r="396" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="7">
         <v>142430</v>
       </c>
@@ -30029,7 +30039,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="397" spans="1:29" s="6" customFormat="1">
+    <row r="397" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="7">
         <v>142431</v>
       </c>
@@ -30095,7 +30105,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="398" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="398" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="7">
         <v>142432</v>
       </c>
@@ -30163,7 +30173,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="399" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="399" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A399" s="7">
         <v>142433</v>
       </c>
@@ -30227,7 +30237,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="400" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="400" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A400" s="7">
         <v>142434</v>
       </c>
@@ -30295,7 +30305,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="401" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="401" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A401" s="7">
         <v>142435</v>
       </c>
@@ -30365,7 +30375,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="402" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="402" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A402" s="7">
         <v>142436</v>
       </c>
@@ -30433,7 +30443,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="403" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="403" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A403" s="7">
         <v>142437</v>
       </c>
@@ -30503,7 +30513,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="404" spans="1:29" s="6" customFormat="1">
+    <row r="404" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7">
         <v>142438</v>
       </c>
@@ -30571,7 +30581,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="405" spans="1:29" s="6" customFormat="1">
+    <row r="405" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7">
         <v>142439</v>
       </c>
@@ -30637,7 +30647,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="406" spans="1:29" s="6" customFormat="1">
+    <row r="406" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="7">
         <v>142440</v>
       </c>
@@ -30703,7 +30713,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="407" spans="1:29" s="6" customFormat="1">
+    <row r="407" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="7">
         <v>142441</v>
       </c>
@@ -30771,7 +30781,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="408" spans="1:29" s="6" customFormat="1">
+    <row r="408" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="7">
         <v>142442</v>
       </c>
@@ -30837,7 +30847,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="409" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="409" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A409" s="7">
         <v>142443</v>
       </c>
@@ -30905,7 +30915,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="410" spans="1:29" s="6" customFormat="1">
+    <row r="410" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="7">
         <v>142444</v>
       </c>
@@ -30973,7 +30983,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="411" spans="1:29" s="6" customFormat="1">
+    <row r="411" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="7">
         <v>142445</v>
       </c>
@@ -31039,7 +31049,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="412" spans="1:29" s="6" customFormat="1">
+    <row r="412" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="7">
         <v>142446</v>
       </c>
@@ -31105,7 +31115,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="413" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="413" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A413" s="7">
         <v>142447</v>
       </c>
@@ -31173,7 +31183,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="414" spans="1:29" s="6" customFormat="1">
+    <row r="414" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="7">
         <v>142448</v>
       </c>
@@ -31239,7 +31249,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="415" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="415" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A415" s="7">
         <v>142449</v>
       </c>
@@ -31307,7 +31317,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="416" spans="1:29" s="6" customFormat="1">
+    <row r="416" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="7">
         <v>142450</v>
       </c>
@@ -31375,7 +31385,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="417" spans="1:29" s="6" customFormat="1">
+    <row r="417" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7">
         <v>142451</v>
       </c>
@@ -31439,7 +31449,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="418" spans="1:29" s="6" customFormat="1">
+    <row r="418" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="7">
         <v>142452</v>
       </c>
@@ -31501,7 +31511,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="419" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="419" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A419" s="7">
         <v>142471</v>
       </c>
@@ -31571,7 +31581,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="420" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="420" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A420" s="7">
         <v>142453</v>
       </c>
@@ -31637,7 +31647,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="421" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="421" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A421" s="7">
         <v>142454</v>
       </c>
@@ -31707,7 +31717,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="422" spans="1:29" s="6" customFormat="1">
+    <row r="422" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="7">
         <v>142455</v>
       </c>
@@ -31771,7 +31781,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="423" spans="1:29" s="6" customFormat="1">
+    <row r="423" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="7">
         <v>142456</v>
       </c>
@@ -31837,7 +31847,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="424" spans="1:29" s="6" customFormat="1">
+    <row r="424" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="7">
         <v>142457</v>
       </c>
@@ -31901,7 +31911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="425" spans="1:29" s="6" customFormat="1">
+    <row r="425" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="7">
         <v>142458</v>
       </c>
@@ -31971,7 +31981,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="426" spans="1:29" s="6" customFormat="1">
+    <row r="426" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="7">
         <v>142459</v>
       </c>
@@ -32037,7 +32047,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="427" spans="1:29" s="6" customFormat="1">
+    <row r="427" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="7">
         <v>142461</v>
       </c>
@@ -32105,7 +32115,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="428" spans="1:29" s="6" customFormat="1">
+    <row r="428" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="7">
         <v>142460</v>
       </c>
@@ -32173,7 +32183,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="429" spans="1:29" s="6" customFormat="1">
+    <row r="429" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="7">
         <v>142462</v>
       </c>
@@ -32239,7 +32249,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="430" spans="1:29" s="6" customFormat="1">
+    <row r="430" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="7">
         <v>142463</v>
       </c>
@@ -32309,7 +32319,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="431" spans="1:29" s="6" customFormat="1">
+    <row r="431" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="7">
         <v>142464</v>
       </c>
@@ -32375,7 +32385,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="432" spans="1:29" s="6" customFormat="1">
+    <row r="432" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="7">
         <v>142465</v>
       </c>
@@ -32443,7 +32453,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="433" spans="1:29" s="6" customFormat="1">
+    <row r="433" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="7">
         <v>142466</v>
       </c>
@@ -32511,7 +32521,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="434" spans="1:29" s="6" customFormat="1">
+    <row r="434" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="7">
         <v>142467</v>
       </c>
@@ -32575,7 +32585,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="435" spans="1:29" s="6" customFormat="1">
+    <row r="435" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="7">
         <v>142468</v>
       </c>
@@ -32639,7 +32649,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="436" spans="1:29" s="6" customFormat="1">
+    <row r="436" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="7">
         <v>142469</v>
       </c>
@@ -32707,7 +32717,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="437" spans="1:29" s="6" customFormat="1">
+    <row r="437" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="7">
         <v>142470</v>
       </c>
@@ -32773,7 +32783,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="438" spans="1:29" s="6" customFormat="1">
+    <row r="438" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="7">
         <v>142472</v>
       </c>
@@ -32839,7 +32849,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="439" spans="1:29" s="6" customFormat="1">
+    <row r="439" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="7">
         <v>142473</v>
       </c>
@@ -32903,7 +32913,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="440" spans="1:29" s="6" customFormat="1">
+    <row r="440" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="7">
         <v>142474</v>
       </c>
@@ -32969,7 +32979,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="441" spans="1:29" s="6" customFormat="1">
+    <row r="441" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="7">
         <v>142475</v>
       </c>
@@ -33035,7 +33045,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="442" spans="1:29" s="6" customFormat="1">
+    <row r="442" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="7">
         <v>142476</v>
       </c>
@@ -33101,7 +33111,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="443" spans="1:29" s="6" customFormat="1">
+    <row r="443" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="7">
         <v>142477</v>
       </c>
@@ -33167,7 +33177,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="444" spans="1:29" s="6" customFormat="1" ht="26.25">
+    <row r="444" spans="1:29" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A444" s="7">
         <v>142478</v>
       </c>
@@ -33237,7 +33247,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="445" spans="1:29" s="6" customFormat="1">
+    <row r="445" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="7">
         <v>142479</v>
       </c>
@@ -33303,7 +33313,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="446" spans="1:29" s="6" customFormat="1">
+    <row r="446" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="7">
         <v>142480</v>
       </c>
@@ -33387,12 +33397,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -33400,12 +33410,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
